--- a/Tsvetomir/Homework#4/AutomationPractice.xlsx
+++ b/Tsvetomir/Homework#4/AutomationPractice.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-31935" yWindow="0" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="-31935" yWindow="0" windowWidth="15480" windowHeight="11640" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Test case template" sheetId="1" r:id="rId1"/>
+    <sheet name="Create an account" sheetId="1" r:id="rId1"/>
+    <sheet name="Sign in with correct data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sign out" sheetId="5" r:id="rId3"/>
+    <sheet name="Sign in with incorrect email" sheetId="3" r:id="rId4"/>
+    <sheet name="Sign in with incorrect pass" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -74,15 +78,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>giton@abv.bg; Username: giton; password: Tsvetomir131313 and all data it needs</t>
-  </si>
-  <si>
     <t>going to the registration form</t>
   </si>
   <si>
-    <t>creating an account in www.automationpractice.com - POZITIVE</t>
-  </si>
-  <si>
     <t>redirect to the user homepage http://automationpractice.com/index.php?controller=my-account</t>
   </si>
   <si>
@@ -96,13 +94,387 @@
   </si>
   <si>
     <t>3.click the registry button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating an account in www.automationpractice.com </t>
+  </si>
+  <si>
+    <t>Auto002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in with existing account in www.automationpractice.com </t>
+  </si>
+  <si>
+    <t>1.Go to www.automationpractice.com</t>
+  </si>
+  <si>
+    <t>Going to the Homepage</t>
+  </si>
+  <si>
+    <t>3.fill the blanked fields with correct Email &amp; password &amp; click on button Sign in</t>
+  </si>
+  <si>
+    <t>2. Search for "Sign in" button &amp; click on it.</t>
+  </si>
+  <si>
+    <t>We have to be redirected to "Authentication window"  http://automationpractice.com/index.php?controller=authentication&amp;back=my-account</t>
+  </si>
+  <si>
+    <t>Redirect to the user homepage http://automationpractice.com/index.php?controller=my-account</t>
+  </si>
+  <si>
+    <t>Auto003</t>
+  </si>
+  <si>
+    <t>already registred email with correct input data</t>
+  </si>
+  <si>
+    <t>Signing in with correct input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Sign in with incorrect email &amp; correct password in www.automationpractice.com </t>
+  </si>
+  <si>
+    <r>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> giton@abv.bg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and all data it needs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>incorrect email giton</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">@abv.bg &amp; correct password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+  </si>
+  <si>
+    <t>26.05.2019y.</t>
+  </si>
+  <si>
+    <r>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> giton</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">@abv.bg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+  </si>
+  <si>
+    <t>3.fill the blanked fields with incorrect Email &amp; correct password and click on button Sign in</t>
+  </si>
+  <si>
+    <r>
+      <t>A red tabled message appears "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>There is 1 error
+Authentication failed.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Auto004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Sign in with correct email &amp; incorrect password in www.automationpractice.com </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">incorrect email </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>giton@abv.bg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; correct password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> giton@abv.bg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>3.Fill the blanked fields with correct Email &amp; incorrect password and click on button Sign in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign out of existing account in www.automationpractice.com </t>
+  </si>
+  <si>
+    <t>We had to be signed in already with correct input data</t>
+  </si>
+  <si>
+    <r>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> giton@abv.bg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tsvetomir131313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>1.Search for "Sign out" button and click it</t>
+  </si>
+  <si>
+    <t>A message has to appear and tell us "You signed out succefully!"</t>
+  </si>
+  <si>
+    <t>Auto005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +495,47 @@
       <color indexed="23"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,23 +583,22 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +610,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,6 +673,394 @@
         <a:xfrm>
           <a:off x="8181975" y="95250"/>
           <a:ext cx="1514475" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5962650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1514475" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5924550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1438275" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5962650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5122" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5924550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1438275" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5962650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5886450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1400175" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5924550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7934325" y="95250"/>
+          <a:ext cx="1438275" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -567,24 +1379,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -592,15 +1404,15 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -608,7 +1420,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -616,23 +1428,23 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -640,15 +1452,15 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
@@ -659,36 +1471,40 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -697,7 +1513,603 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:IV65536"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>